--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>550008</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>信诚优胜精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>83.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>5.91</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006392</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中信保诚创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>中欧睿见混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>46.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2550</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005587</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信比较优势灵活配置混合</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.30</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>77.64</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7802</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007243</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007244</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52.20</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5354</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006143</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006144</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006392</t>
+          <t>001287</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信保诚创新成长灵活配置混合</t>
+          <t>安信优势增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.65</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.99</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>008891</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>安信价值成长混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001287</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安信优势增长灵活配置混合A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1416,15 +1746,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>85.18</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>5.72</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001716</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合A</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001997</t>
+          <t>005587</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银新趋势灵活配置混合C</t>
+          <t>安信比较优势灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>47.36</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>006392</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中信保诚创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001716</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>工银新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>008892</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>安信价值成长混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001997</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>工银新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>47.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008891</t>
+          <t>007243</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>安信价值成长混合A</t>
+          <t>安信核心竞争力灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008892</t>
+          <t>006143</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安信价值成长混合C</t>
+          <t>恒生前海中证质量成长低波动指数A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>5</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>007244</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>安信核心竞争力灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>56.92</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>52.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>006144</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>恒生前海中证质量成长低波动指数C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1862,17 +2352,21 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>4.64</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2352,7 +2353,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -2367,6 +2367,822 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3189,4 +3190,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3398,4 +3399,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3407,7 +3408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3418,17 +3419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3438,14 +3459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3454,14 +3497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.23</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3470,14 +3535,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.22</v>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3486,13 +3573,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.460000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3844,7 +3845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3855,17 +3856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3875,14 +3896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.89</v>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3891,14 +3934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.57</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3907,14 +3972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.23</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3923,14 +4010,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.22</v>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3939,13 +4048,583 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.460000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4507,7 +4508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4518,17 +4519,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4538,14 +4559,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.95</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4554,14 +4597,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.89</v>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0771</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4570,14 +4635,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.57</v>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4586,14 +4673,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.23</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4602,14 +4711,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.22</v>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4618,13 +4749,599 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.460000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,6 +457,154 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -478,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -508,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.04</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0089</t>
+          <t>1.7833</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001409</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>工银瑞信互联网加股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.04</t>
+          <t>37.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0089</t>
+          <t>1.0771</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>011304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>工银瑞信创新成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>35.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>84.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4078</t>
+          <t>1.0355</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>550008</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚优胜精选混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.90</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.71</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9332</t>
+          <t>1.0031</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>000263</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>工银瑞信信息产业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>80.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7273</t>
+          <t>0.7049</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6376</t>
+          <t>0.4416</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -736,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5192</t>
+          <t>0.1754</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -774,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2306</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -812,32 +960,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002419</t>
+          <t>011474</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富盈安灵活配置混合</t>
+          <t>工银瑞信信息产业混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>80.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1977</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -850,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>001650</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>60.40</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1877</t>
+          <t>0.0798</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -888,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001287</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信优势增长灵活配置混合A</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1530</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -926,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>011305</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>工银瑞信创新成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>84.16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1151</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -964,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006392</t>
+          <t>002233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信保诚创新成长灵活配置混合</t>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.40</t>
+          <t>60.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0473</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1002,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>工银瑞信灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>58.31</t>
+          <t>72.38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0750</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1040,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002036</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信优势增长灵活配置混合C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.83</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1088,26 +1236,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1116,33 +1264,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>72.38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>3</v>
@@ -1153,7 +1299,2129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9583</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9547</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3601</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2380,2129 +4648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010429</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧睿见混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5694</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010678</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧均衡成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3872</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>37.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3062</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6221</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5169</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4483</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2426</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2101</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011856</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1944</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1872</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1735</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0913</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>58.68</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0795</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010679</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧均衡成长混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0759</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011857</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>71.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5001</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519937</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信先锐混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008918</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信先锐混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.78</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011304</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信创新成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3741</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>38.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0806</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000263</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8564</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2744</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011305</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0667</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001722</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信银和利混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>29.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011474</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.52</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011304</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信创新成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4497</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>43.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4275</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>43.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4275</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001409</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信互联网加股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9583</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.9547</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000263</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>27.45</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3601</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011474</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信信息产业混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.76</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0785</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002581</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>40.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0691</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011305</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信创新成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>487016</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>73.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002582</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>40.60</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001428</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>73.70</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4529,7 +4675,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4559,36 +4705,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7833</t>
+          <t>2.0089</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4597,36 +4743,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001409</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信互联网加股票</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>37.66</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0771</t>
+          <t>2.0089</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4635,36 +4781,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011304</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信创新成长混合A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.22</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0355</t>
+          <t>1.4078</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4673,36 +4819,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>550008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>信诚优胜精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>30.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>83.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0031</t>
+          <t>0.9332</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4711,36 +4857,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000263</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.82</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.05</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7049</t>
+          <t>0.7273</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4749,36 +4895,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4416</t>
+          <t>0.6376</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4787,36 +4933,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧养老产业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.93</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1754</t>
+          <t>0.5192</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -4825,36 +4971,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>99.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.2306</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -4863,32 +5009,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011474</t>
+          <t>002419</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信信息产业混合C</t>
+          <t>汇添富盈安灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.05</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0829</t>
+          <t>0.1977</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -4901,36 +5047,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001650</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信丰收回报灵活配置混合A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60.40</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0798</t>
+          <t>0.1877</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -4939,36 +5085,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001287</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>安信优势增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.1530</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4977,36 +5123,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011305</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信创新成长混合C</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.1151</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -5015,36 +5161,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002233</t>
+          <t>006392</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信丰收回报灵活配置混合C</t>
+          <t>中信保诚创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>60.40</t>
+          <t>88.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0473</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -5053,36 +5199,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>487016</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合A</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>58.31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.0750</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -5091,36 +5237,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>002036</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>安信优势增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>92.83</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -5139,26 +5285,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -5167,182 +5313,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001428</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合B</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>31</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.460000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>6.77</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>7.95</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.89</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.57</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>8.23</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>11.22</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.460000000000001</v>
       </c>
     </row>
@@ -600,6 +617,1918 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +3228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +3890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2397,7 +4326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2605,7 +4534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3421,7 +5350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4648,7 +6577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
+++ b/数据整理/stocks/A股/上证主板/601965-中国汽研.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
-        <v>9.17</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>6.77</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>7.95</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3.89</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.57</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>8.23</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>11.22</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>9.460000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4078</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,2146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012828</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014781</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014560</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014561</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方汽车产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009689</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014782</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信兴衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012829</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国浦诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009690</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞锦灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>46.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015406</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2528,7 +5387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3228,7 +6087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3890,7 +6749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4326,7 +7185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4534,7 +7393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5350,7 +8209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6575,706 +9434,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0089</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0089</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4078</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>550008</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信诚优胜精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9332</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7273</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6376</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001955</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧养老产业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5192</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2306</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1977</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1877</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001287</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1530</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1151</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006392</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中信保诚创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1037</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002036</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信优势增长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0741</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>